--- a/plantillas/LibroMayor.xlsx
+++ b/plantillas/LibroMayor.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{762BFA83-1102-4A26-BC83-6C8410A54302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A7E6A-4688-41BF-85EB-8C015416AFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F 4.1 Libro Mayor" sheetId="2" r:id="rId1"/>
@@ -22,20 +22,11 @@
     <definedName name="VENCII">[1]CRONOGRAMA!$C$83:$D$452</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>RUC:</t>
   </si>
@@ -46,59 +37,44 @@
     <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL:</t>
   </si>
   <si>
-    <t>(2) Para los casos de contabilidad manual, cuando el número correlativo no permita relacionar el origen de la operación y/o documento de origen.</t>
-  </si>
-  <si>
-    <t>(1) El contribuyente elegira si lo lleva como titulo o columna</t>
-  </si>
-  <si>
     <t>CODIGO Y/O DENOMINACIÓN DE LA CUENTA CONTABLE (1)</t>
   </si>
   <si>
     <t>FORMATO 6.1: "LIBRO MAYOR"</t>
   </si>
   <si>
-    <t xml:space="preserve">         ACREEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 DEUDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         SALDOS Y MOVIMIENTOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">                TOTALES</t>
   </si>
   <si>
-    <t xml:space="preserve">        FECHA DE</t>
+    <t>DECO ELERA S.A.C.</t>
   </si>
   <si>
-    <t xml:space="preserve">     LA OPERACIÓN</t>
+    <t>FECHA DE LA OPERACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">         NÚMERO CORRELATIVO </t>
+    <t>NÚMERO CORRELATIVO DEL LIBRO DIARIO (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">          DEL LIBRO DIARIO (2)</t>
+    <t>DESCRIPCION O GLOSA DE LA OPERACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">              DESCRIPCION O GLOSA</t>
+    <t>SALDOS Y MOVIMIENTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">                  DE LA OPERACIÓN</t>
+    <t>DEUDOR</t>
   </si>
   <si>
-    <t>DECO ELERA S.A.C.</t>
+    <t>ACREEDOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="190" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,11 +130,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -225,15 +196,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -247,17 +209,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -267,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,42 +233,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3654,13 +3597,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3673,23 +3616,23 @@
     <col min="5" max="5" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3698,109 +3641,89 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>20612188930</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="s">
-        <v>17</v>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="22" t="s">
-        <v>10</v>
+    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1.3779527559055118" bottom="1" header="0" footer="0"/>
